--- a/feature_list.xlsx
+++ b/feature_list.xlsx
@@ -1,29 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliasserrania/gdrive/uchicago/spring2019/machine_learning/ml_final_project2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Krista CHAN!\Documents\GitHub\ML Lab\ml_final_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{3B50EDFD-5A1B-8A4D-A89E-4D0456E51BF7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6F38DE-D171-4B08-AF5B-5BB74A6AB86D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="feat_all" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">feat_all!$A$1:$L$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">feat_all!$A$1:$L$198</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1588" uniqueCount="432">
   <si>
     <t>Regular</t>
   </si>
@@ -1303,12 +1302,36 @@
   </si>
   <si>
     <t>1 if officer's employee status is EXEMPT BY ORDINANCE, 0 otherwise</t>
+  </si>
+  <si>
+    <t>Average number of trrs per month in beats of the lowest quartile of crime in the month of the trr</t>
+  </si>
+  <si>
+    <t>Average number of trrs per month in beats of the second quartile of crime in the month of the trr</t>
+  </si>
+  <si>
+    <t>Average number of trrs per month in beats of the third quartile of crime in the month of the trr</t>
+  </si>
+  <si>
+    <t>Average number of trrs per month in beats of the fourth quartile of crime in the month of the trr</t>
+  </si>
+  <si>
+    <t>Average number of complaints per month in beats of the lowest quartile of crime in the month of the complaint</t>
+  </si>
+  <si>
+    <t>Average number of complaints per month in beats of the second quartile of crime in the month of the complaint</t>
+  </si>
+  <si>
+    <t>Average number of complaints per month in beats of the third quartile of crime in the month of the complaint</t>
+  </si>
+  <si>
+    <t>Average number of complaints per month in beats of the fourth quartile of crime in the month of the complaint</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1821,48 +1844,48 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1878,7 +1901,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2173,31 +2196,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L204"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A154" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L159" sqref="L159"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="87.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.19921875" customWidth="1"/>
+    <col min="5" max="5" width="8.796875" customWidth="1"/>
+    <col min="6" max="6" width="13.19921875" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="10.69921875" customWidth="1"/>
+    <col min="9" max="9" width="18" customWidth="1"/>
+    <col min="10" max="11" width="8.796875" customWidth="1"/>
+    <col min="12" max="12" width="87.796875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>191</v>
       </c>
@@ -2235,7 +2258,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2270,7 +2293,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2305,7 +2328,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2340,7 +2363,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2375,7 +2398,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2410,7 +2433,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2445,7 +2468,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2480,7 +2503,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2515,7 +2538,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2550,7 +2573,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2585,7 +2608,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2620,7 +2643,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2655,7 +2678,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2690,7 +2713,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2725,7 +2748,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2760,7 +2783,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2795,7 +2818,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2830,7 +2853,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2865,7 +2888,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2900,7 +2923,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2935,7 +2958,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2970,7 +2993,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -3005,7 +3028,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -3040,7 +3063,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -3075,7 +3098,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -3110,7 +3133,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -3145,7 +3168,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -3180,7 +3203,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -3215,7 +3238,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -3250,7 +3273,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -3285,7 +3308,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -3320,7 +3343,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -3355,7 +3378,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -3390,7 +3413,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -3425,7 +3448,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -3460,7 +3483,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -3495,7 +3518,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -3530,7 +3553,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -3565,7 +3588,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -3600,7 +3623,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -3635,7 +3658,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -3670,7 +3693,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -3705,7 +3728,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
@@ -3740,7 +3763,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -3775,7 +3798,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
@@ -3810,7 +3833,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
@@ -3845,7 +3868,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
@@ -3880,7 +3903,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -3915,7 +3938,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
@@ -3950,7 +3973,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
@@ -3985,7 +4008,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
@@ -4020,7 +4043,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
@@ -4055,7 +4078,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
@@ -4090,7 +4113,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
@@ -4125,7 +4148,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
@@ -4160,7 +4183,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
@@ -4195,7 +4218,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
@@ -4230,7 +4253,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
@@ -4265,7 +4288,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
@@ -4300,7 +4323,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
@@ -4335,7 +4358,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
@@ -4370,7 +4393,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
@@ -4405,7 +4428,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
@@ -4440,7 +4463,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
@@ -4475,7 +4498,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
@@ -4510,7 +4533,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
@@ -4545,7 +4568,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
@@ -4580,7 +4603,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
@@ -4615,7 +4638,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
@@ -4650,7 +4673,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
@@ -4685,7 +4708,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
@@ -4720,7 +4743,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>71</v>
       </c>
@@ -4755,7 +4778,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>72</v>
       </c>
@@ -4790,7 +4813,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>73</v>
       </c>
@@ -4825,7 +4848,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>74</v>
       </c>
@@ -4860,7 +4883,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>75</v>
       </c>
@@ -4895,7 +4918,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>76</v>
       </c>
@@ -4930,7 +4953,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>77</v>
       </c>
@@ -4965,7 +4988,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>78</v>
       </c>
@@ -5000,7 +5023,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>79</v>
       </c>
@@ -5035,7 +5058,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>80</v>
       </c>
@@ -5070,7 +5093,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>81</v>
       </c>
@@ -5105,7 +5128,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>82</v>
       </c>
@@ -5140,7 +5163,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>83</v>
       </c>
@@ -5175,7 +5198,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>84</v>
       </c>
@@ -5210,7 +5233,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>85</v>
       </c>
@@ -5245,7 +5268,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>86</v>
       </c>
@@ -5280,7 +5303,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>87</v>
       </c>
@@ -5315,7 +5338,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>88</v>
       </c>
@@ -5350,7 +5373,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>89</v>
       </c>
@@ -5385,7 +5408,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>90</v>
       </c>
@@ -5420,7 +5443,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>91</v>
       </c>
@@ -5455,7 +5478,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>92</v>
       </c>
@@ -5490,7 +5513,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>93</v>
       </c>
@@ -5525,7 +5548,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>94</v>
       </c>
@@ -5560,7 +5583,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>95</v>
       </c>
@@ -5595,7 +5618,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>96</v>
       </c>
@@ -5630,7 +5653,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>97</v>
       </c>
@@ -5665,7 +5688,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>98</v>
       </c>
@@ -5700,7 +5723,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>99</v>
       </c>
@@ -5735,7 +5758,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>100</v>
       </c>
@@ -5770,7 +5793,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>101</v>
       </c>
@@ -5805,7 +5828,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>102</v>
       </c>
@@ -5840,7 +5863,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>103</v>
       </c>
@@ -5875,7 +5898,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>104</v>
       </c>
@@ -5910,7 +5933,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>105</v>
       </c>
@@ -5945,7 +5968,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>106</v>
       </c>
@@ -5980,7 +6003,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>107</v>
       </c>
@@ -6015,7 +6038,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>108</v>
       </c>
@@ -6050,7 +6073,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>109</v>
       </c>
@@ -6085,7 +6108,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>110</v>
       </c>
@@ -6120,7 +6143,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>111</v>
       </c>
@@ -6155,7 +6178,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>112</v>
       </c>
@@ -6190,7 +6213,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>113</v>
       </c>
@@ -6225,7 +6248,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>114</v>
       </c>
@@ -6260,7 +6283,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>115</v>
       </c>
@@ -6295,7 +6318,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>116</v>
       </c>
@@ -6330,7 +6353,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>117</v>
       </c>
@@ -6365,7 +6388,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>118</v>
       </c>
@@ -6400,7 +6423,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>119</v>
       </c>
@@ -6435,7 +6458,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>120</v>
       </c>
@@ -6470,7 +6493,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>121</v>
       </c>
@@ -6505,7 +6528,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>122</v>
       </c>
@@ -6540,7 +6563,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>123</v>
       </c>
@@ -6575,7 +6598,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>124</v>
       </c>
@@ -6610,7 +6633,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>125</v>
       </c>
@@ -6645,7 +6668,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>126</v>
       </c>
@@ -6680,7 +6703,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>127</v>
       </c>
@@ -6715,7 +6738,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>128</v>
       </c>
@@ -6750,7 +6773,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>129</v>
       </c>
@@ -6785,7 +6808,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>130</v>
       </c>
@@ -6820,7 +6843,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>131</v>
       </c>
@@ -6855,7 +6878,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>132</v>
       </c>
@@ -6890,7 +6913,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>133</v>
       </c>
@@ -6925,7 +6948,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>134</v>
       </c>
@@ -6960,7 +6983,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>135</v>
       </c>
@@ -6995,7 +7018,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>136</v>
       </c>
@@ -7030,7 +7053,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>137</v>
       </c>
@@ -7065,7 +7088,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>138</v>
       </c>
@@ -7100,7 +7123,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>139</v>
       </c>
@@ -7135,7 +7158,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>140</v>
       </c>
@@ -7170,7 +7193,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>141</v>
       </c>
@@ -7205,7 +7228,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>142</v>
       </c>
@@ -7240,7 +7263,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>143</v>
       </c>
@@ -7275,7 +7298,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>144</v>
       </c>
@@ -7310,7 +7333,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>145</v>
       </c>
@@ -7345,7 +7368,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>146</v>
       </c>
@@ -7380,7 +7403,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>147</v>
       </c>
@@ -7415,7 +7438,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>148</v>
       </c>
@@ -7450,7 +7473,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>149</v>
       </c>
@@ -7485,7 +7508,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>150</v>
       </c>
@@ -7520,7 +7543,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>151</v>
       </c>
@@ -7555,7 +7578,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>152</v>
       </c>
@@ -7578,7 +7601,7 @@
         <v>0.2</v>
       </c>
       <c r="I154" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J154" t="s">
         <v>214</v>
@@ -7586,8 +7609,11 @@
       <c r="K154" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L154" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>153</v>
       </c>
@@ -7610,7 +7636,7 @@
         <v>0.3</v>
       </c>
       <c r="I155" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J155" t="s">
         <v>214</v>
@@ -7618,8 +7644,11 @@
       <c r="K155" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L155" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>154</v>
       </c>
@@ -7642,7 +7671,7 @@
         <v>0.17</v>
       </c>
       <c r="I156" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J156" t="s">
         <v>214</v>
@@ -7650,8 +7679,11 @@
       <c r="K156" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L156" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>155</v>
       </c>
@@ -7674,7 +7706,7 @@
         <v>0.31</v>
       </c>
       <c r="I157" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J157" t="s">
         <v>214</v>
@@ -7682,8 +7714,11 @@
       <c r="K157" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L157" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>156</v>
       </c>
@@ -7706,7 +7741,7 @@
         <v>0.18</v>
       </c>
       <c r="I158" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J158" t="s">
         <v>214</v>
@@ -7714,8 +7749,11 @@
       <c r="K158" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L158" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>157</v>
       </c>
@@ -7738,7 +7776,7 @@
         <v>0.27</v>
       </c>
       <c r="I159" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J159" t="s">
         <v>214</v>
@@ -7746,8 +7784,11 @@
       <c r="K159" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L159" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>158</v>
       </c>
@@ -7770,7 +7811,7 @@
         <v>0.45</v>
       </c>
       <c r="I160" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J160" t="s">
         <v>214</v>
@@ -7778,8 +7819,11 @@
       <c r="K160" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L160" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>159</v>
       </c>
@@ -7802,7 +7846,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="I161" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J161" t="s">
         <v>214</v>
@@ -7810,8 +7854,11 @@
       <c r="K161" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L161" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>160</v>
       </c>
@@ -7846,7 +7893,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>161</v>
       </c>
@@ -7881,7 +7928,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>162</v>
       </c>
@@ -7916,7 +7963,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>163</v>
       </c>
@@ -7951,7 +7998,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>164</v>
       </c>
@@ -7986,7 +8033,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>165</v>
       </c>
@@ -8021,7 +8068,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>166</v>
       </c>
@@ -8056,7 +8103,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>167</v>
       </c>
@@ -8091,7 +8138,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>168</v>
       </c>
@@ -8126,7 +8173,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>169</v>
       </c>
@@ -8161,7 +8208,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>170</v>
       </c>
@@ -8196,7 +8243,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>171</v>
       </c>
@@ -8231,7 +8278,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>172</v>
       </c>
@@ -8266,7 +8313,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>173</v>
       </c>
@@ -8301,7 +8348,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>174</v>
       </c>
@@ -8336,7 +8383,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>175</v>
       </c>
@@ -8371,7 +8418,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>176</v>
       </c>
@@ -8406,7 +8453,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>177</v>
       </c>
@@ -8441,7 +8488,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>178</v>
       </c>
@@ -8476,7 +8523,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>179</v>
       </c>
@@ -8511,7 +8558,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>180</v>
       </c>
@@ -8546,7 +8593,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>181</v>
       </c>
@@ -8581,7 +8628,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>182</v>
       </c>
@@ -8616,7 +8663,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>183</v>
       </c>
@@ -8651,7 +8698,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>403</v>
       </c>
@@ -8677,7 +8724,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>403</v>
       </c>
@@ -8703,7 +8750,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>403</v>
       </c>
@@ -8729,7 +8776,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>403</v>
       </c>
@@ -8755,7 +8802,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>403</v>
       </c>
@@ -8781,7 +8828,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>403</v>
       </c>
@@ -8807,7 +8854,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>403</v>
       </c>
@@ -8833,7 +8880,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>403</v>
       </c>
@@ -8859,7 +8906,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>403</v>
       </c>
@@ -8885,7 +8932,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>403</v>
       </c>
@@ -8911,7 +8958,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>403</v>
       </c>
@@ -8937,7 +8984,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>403</v>
       </c>
@@ -8963,7 +9010,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>403</v>
       </c>
@@ -8989,24 +9036,24 @@
         <v>418</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C200" s="4"/>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C201" s="4"/>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C202" s="4"/>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C203" s="4"/>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C204" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L1">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L185">
+  <autoFilter ref="A1:L198" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState ref="A2:L185">
       <sortCondition ref="A1:A185"/>
     </sortState>
   </autoFilter>
